--- a/data/trans_dic/P78C10_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C10_2023-Provincia-trans_dic.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,4%</t>
+          <t>57,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>51,9%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 74,56</t>
+          <t>23,72; 74,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,33; 79,19</t>
+          <t>35,32; 78,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,29; 69,61</t>
+          <t>32,34; 71,13</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>36,87%</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,05</t>
+          <t>0,0; 95,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 72,06</t>
+          <t>8,06; 71,89</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>63,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>57,9%</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,33; 88,9</t>
+          <t>33,47; 88,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,03; 86,13</t>
+          <t>29,39; 86,9</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>51,89%</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>6,56; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 100,0</t>
+          <t>8,38; 100,0</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,1</t>
+          <t>0,0; 60,36</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>80,37%</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,03; 100,0</t>
+          <t>49,11; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,63; 98,34</t>
+          <t>46,48; 98,18</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,3%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,03; 99,36</t>
+          <t>91,85; 99,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>90,76; 98,54</t>
+          <t>90,76; 98,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,22; 98,43</t>
+          <t>93,12; 98,41</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>82,01%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>74,79; 89,56</t>
+          <t>72,44; 88,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>77,43; 90,07</t>
+          <t>70,82; 88,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>78,47; 88,0</t>
+          <t>74,41; 86,36</t>
         </is>
       </c>
     </row>
